--- a/medicine/Mort/Bouquet_final_(film)/Bouquet_final_(film).xlsx
+++ b/medicine/Mort/Bouquet_final_(film)/Bouquet_final_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bouquet Final est un film français réalisé par Michel Delgado et sorti en 2008.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel, jeune musicien au chômage, est recruté dans une entreprise américaine de pompes funèbres en tant que directeur commercial. Devant effectuer un stage pratique d'un mois dans l'une des agences de la société, il est accueilli par le directeur de celle-ci, Gervais Bron, qui officie dans le métier depuis 20 ans. Face à l'insensibilité de Bron vis-à-vis des familles des défunts, les relations entre les deux hommes vont être quelque peu tendues, d'autant que Bron convoitait le poste obtenu par Gabriel. De plus, ce dernier va avoir beaucoup de mal à avouer son nouveau poste à sa famille, ainsi qu'à Claire, sa nouvelle petite amie, qui n'est autre que la petite-fille de Monsieur Froissard, un client dont l'épouse est décédée récemment.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Bouquet final
 Titre international : Final Arrangements
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Didier Bourdon : Gervais Bron
 Marc-André Grondin : Gabriel Lougovoï
@@ -645,17 +663,91 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Casting
-Certains acteurs ont joué dans les mini-séries de la société de production CALT : Marion Creusvaux, Anne Girouard et Guillaume Briat dans Kaamelott, Chantal Neuwirth et Valérie Bonneton dans Caméra Café.
-Tournage
-Extérieurs à Paris[2] :
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains acteurs ont joué dans les mini-séries de la société de production CALT : Marion Creusvaux, Anne Girouard et Guillaume Briat dans Kaamelott, Chantal Neuwirth et Valérie Bonneton dans Caméra Café.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bouquet_final_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouquet_final_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Extérieurs à Paris :
 7e arrondissement : place Vauban (accident du corbillard),
 11e arrondissement : boulevard de Ménilmontant (Gabriel arrive devant l'agence des pompes funèbres),
 12e arrondissement : rue Crémieux (Gabriel et Claire entrent dans l'hôtel),
 16e arrondissement : avenue du Président-Kennedy (Gervais et Gabriel arrivent au domicile du grand-père défunt),
-20e arrondissement : cimetière du Père-Lachaise (Gervais fait visiter le cimetière à Gabriel).
-Bande originale
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+20e arrondissement : cimetière du Père-Lachaise (Gervais fait visiter le cimetière à Gabriel).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bouquet_final_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouquet_final_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
 Regina Spektor - On the Radio
 Soraya Arnelas - Gonna Get Along Without Ya Now (générique de fin)</t>
